--- a/Dataset/Captions collection/v7_test_captions_collection.xlsx
+++ b/Dataset/Captions collection/v7_test_captions_collection.xlsx
@@ -495,103 +495,103 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>141</v>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>House and land price index</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Index 347</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>89</v>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2016</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Total softwood, production</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Cubic metres</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>64</v>
-      </c>
       <c r="K2" t="n">
+        <v>12</v>
+      </c>
+      <c r="L2" t="n">
+        <v>19</v>
+      </c>
+      <c r="M2" t="n">
+        <v>44</v>
+      </c>
+      <c r="N2" t="n">
+        <v>66</v>
+      </c>
+      <c r="O2" t="n">
         <v>72</v>
       </c>
-      <c r="L2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M2" t="n">
-        <v>95</v>
-      </c>
-      <c r="N2" t="n">
-        <v>91</v>
-      </c>
-      <c r="O2" t="n">
-        <v>83</v>
-      </c>
       <c r="P2" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="Q2" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="R2" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S2" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="T2" t="n">
         <v>100</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V2" t="n">
-        <v>46158</v>
+        <v>1033</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>This graph depicts the total softwood production in Canada in 2016 in cubic meters. The values range from roughly 57000 in March to 46000 in December. January to March there is an increase in production, March to July production decreased and reached 50000 in July. There is another high of about 57000 cubic meters in November. </t>
+          <t>This graph represents the house and land price index of Canada in 2017. Overall a content increase can be observed throughout the year, starting at approximately 1001 in January and increasing of uptimes to 1033 in November where it plateaus like that until December. </t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>This graph depicts the total TKN_About in TKN_Geo in TKN_Year in cubic meters. The values range from roughly 102 in March to -1 in December. January to March there is an increase in production, March to TKN_About decreased and reached 36 in July. There is another high of about 102 cubic meters in November. </t>
+          <t>This graph represents TKN_About TKN_UOM of TKN_Geo in TKN_Year. Overall a content increase can be observed throughout the year, starting at approximately TKN_About increasing of uptimes to 100 in November where it plateaus like that until December. </t>
         </is>
       </c>
       <c r="Y2" t="n">
-        <v>56805</v>
+        <v>1033</v>
       </c>
       <c r="Z2" t="n">
-        <v>46158</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
         <v>9</v>
@@ -658,12 +658,12 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>This graph depicts the total softwood production in cubic metres of Canada in 2016. Production starts at approximately 53000 cubic metres in January and increases to one of its maximum values of 57000 cubic metres in March. The following months show first a slow decrease, but then a sharp decrease in July. From July until November production gradually increases again until it reaches its second maximum of 57000 cubic metres in November. There is a sharp drop from November onwards, reaching its minimum value of 46000 cubic metres in December. </t>
+          <t>This line graph displays total softwood production in cubic metres in Canada for 2016. The amount fluctuates with an increase from January to March, followed by a slow decrease from March to June. A steep reduction follows in July, matched by an equally steep increase in August. A steady increase from August to November is followed by a dramatic reduction in December to a yearly low of 46000 cubic metres. </t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>This graph depicts the total TKN_About in cubic metres of TKN_Geo in TKN_Year. Production starts at approximately 64 cubic metres in January and increases to one of its maximum values of 102 cubic metres in March. The following months show first a slow decrease, but then a sharp decrease in July. From July until TKN_About gradually increases again until it reaches its second maximum of 102 cubic metres in November. There is a sharp drop from November onwards, reaching its minimum value of -1 cubic metres in December. </t>
+          <t>This line graph displays TKN_About in TKN_UOM in TKN_Geo for TKN_Year. The amount fluctuates with an increase from January to March, followed by a slow decrease from March to June. A steep reduction follows in July, matched by an equally steep increase in August. A steady increase from August to November is followed by a dramatic reduction in December to a yearly low of TKN_UOM metres. </t>
         </is>
       </c>
       <c r="Y3" t="n">
@@ -675,13 +675,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
         <v>9</v>
@@ -748,12 +748,12 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>This line graph displays total softwood production in cubic metres in Canada for 2016. The amount fluctuates with an increase from January to March, followed by a slow decrease from March to June. A steep reduction follows in July, matched by an equally steep increase in August. A steady increase from August to November is followed by a dramatic reduction in December to a yearly low of 46000 cubic metres. </t>
+          <t>This graph depicts the total softwood production in cubic metres of Canada in 2016. Production starts at approximately 53000 cubic metres in January and increases to one of its maximum values of 57000 cubic metres in March. The following months show first a slow decrease, but then a sharp decrease in July. From July until November production gradually increases again until it reaches its second maximum of 57000 cubic metres in November. There is a sharp drop from November onwards, reaching its minimum value of 46000 cubic metres in December. </t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>This line graph displays total TKN_About in cubic metres in TKN_Geo for TKN_Year. The amount fluctuates with an increase from January to March, followed by a slow decrease from March to June. A steep reduction follows in July, matched by an equally steep increase in August. A steady increase from August to November is followed by a dramatic reduction in December to a yearly low of -1 cubic metres. </t>
+          <t>This graph depicts the TKN_About in TKN_UOM of TKN_Geo in TKN_Year. Production starts at approximately 64 TKN_UOM in January and increases to one of its maximum values of 102 TKN_UOM in March. The following months show first a slow decrease, but then a sharp decrease in July. From July until TKN_About gradually increases again until it reaches its second maximum of 102 TKN_UOM in November. There is a sharp drop from November onwards, reaching its minimum value of -1 TKN_UOM in December. </t>
         </is>
       </c>
       <c r="Y4" t="n">
@@ -765,19 +765,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>138</v>
+        <v>886</v>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>255</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>2017</v>
@@ -789,85 +789,85 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>House and land price index</t>
+          <t>Total vehicles entering Canada</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Index 347</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="J5" t="n">
+        <v>11</v>
+      </c>
+      <c r="K5" t="n">
         <v>0</v>
       </c>
-      <c r="K5" t="n">
-        <v>12</v>
-      </c>
       <c r="L5" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M5" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N5" t="n">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="O5" t="n">
-        <v>72</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="P5" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q5" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="R5" t="n">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="S5" t="n">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="T5" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="U5" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="V5" t="n">
-        <v>1033</v>
+        <v>2376122</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>The following graph shows information about the house and land price index in Canada during 2017. As can be seen from the graph, the index have been steadily increasing its value over the year. There are few light fluctuations but no peaks or dips have been recorded. </t>
+          <t>the total vehicle entering Canada in 2017 were about 2000000 in Jan and Feb. then, they increased linearly until Aug, reaching 3400000. The they decreased considerably to 2400000, almost back to where they started from. </t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>The following graph shows information about the house TKN_About in TKN_Geo during TKN_Year. As can be seen from TKN_About have been steadily increasing its value over the year. There are few light fluctuations but no peaks or dips have been recorded. </t>
+          <t>the TKN_About TKN_Geo in TKN_Year were about 1 in Jan and Feb. then, they increased linearly until Aug, reaching 94. The they decreased considerably to 2400000, almost back to where they started from. </t>
         </is>
       </c>
       <c r="Y5" t="n">
-        <v>1033</v>
+        <v>3483738</v>
       </c>
       <c r="Z5" t="n">
-        <v>1001</v>
+        <v>1985971</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B6" t="n">
-        <v>141</v>
+        <v>950</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>275</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
         <v>2017</v>
@@ -879,85 +879,85 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>House and land price index</t>
+          <t>Production of Oats</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Index 347</t>
+          <t>Tonnes</t>
         </is>
       </c>
       <c r="J6" t="n">
+        <v>63</v>
+      </c>
+      <c r="K6" t="n">
+        <v>37</v>
+      </c>
+      <c r="L6" t="n">
+        <v>60</v>
+      </c>
+      <c r="M6" t="n">
+        <v>21</v>
+      </c>
+      <c r="N6" t="n">
         <v>0</v>
       </c>
-      <c r="K6" t="n">
-        <v>12</v>
-      </c>
-      <c r="L6" t="n">
-        <v>19</v>
-      </c>
-      <c r="M6" t="n">
-        <v>44</v>
-      </c>
-      <c r="N6" t="n">
-        <v>66</v>
-      </c>
       <c r="O6" t="n">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="P6" t="n">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="Q6" t="n">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="R6" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="S6" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="T6" t="n">
-        <v>100</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="U6" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="V6" t="n">
-        <v>1033</v>
+        <v>128722</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>This graph represents the house and land price index of Canada in 2017. Overall a content increase can be observed throughout the year, starting at approximately 1001 in January and increasing of uptimes to 1033 in November where it plateaus like that until December. </t>
+          <t>This graph depicts the production of oats in tonnes in Canada during 2017. Production shows peaks in January and March, whereas it significantly drops after March, reaching its minimum of approximately 65000 in May. For the following months production slightly increases until August. Between August and September a rapid increase in production can be observed, indicating the maximum of over 200000 in September. Production slowly decreases throughout the following months until December. </t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>This graph represents the house TKN_About of TKN_Geo in TKN_Year. Overall a content increase can be observed throughout the year, starting at approximately TKN_About increasing of uptimes to 100 in November where it plateaus like that until December. </t>
+          <t>This graph depicts the TKN_About in TKN_UOM in TKN_Geo during TKN_Year. Production shows peaks in January and March, whereas it significantly drops after March, reaching its minimum of approximately 0 in May. For the following TKN_About slightly increases until August. Between August and September a rapid increase TKN_About can be observed, indicating the maximum of over 96 in September. Production slowly decreases throughout the following months until December. </t>
         </is>
       </c>
       <c r="Y6" t="n">
-        <v>1033</v>
+        <v>205171</v>
       </c>
       <c r="Z6" t="n">
-        <v>1001</v>
+        <v>64724</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>143</v>
+        <v>882</v>
       </c>
       <c r="C7" t="n">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
         <v>2017</v>
@@ -969,82 +969,82 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>House and land price index</t>
+          <t>Total vehicles entering Canada</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Index 347</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="J7" t="n">
+        <v>11</v>
+      </c>
+      <c r="K7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
-        <v>12</v>
-      </c>
       <c r="L7" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M7" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N7" t="n">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="O7" t="n">
-        <v>72</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q7" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="R7" t="n">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="S7" t="n">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="T7" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="U7" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="V7" t="n">
-        <v>1033</v>
+        <v>2376122</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>Continuous increase of the house and land price index in Canada during the year 2017. </t>
+          <t>The graph showes the total vehicles entering canada in 2017. The graph decreases in February. From february till August it starts to increase continously and reaches the maximum of over 3400000. From August till December the graph decrease continuslie till a total number of 2400000 in December. </t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Continuous increase of the house TKN_About in TKN_Geo during the year TKN_Year. </t>
+          <t>The graph showes the TKN_About in TKN_Year. The graph decreases in February. From february till August it starts to increase continously and reaches the maximum of over 94. From August till December the graph decrease continuslie TKN_About TKN_UOM of 28 in December. </t>
         </is>
       </c>
       <c r="Y7" t="n">
-        <v>1033</v>
+        <v>3483738</v>
       </c>
       <c r="Z7" t="n">
-        <v>1001</v>
+        <v>1985971</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="C8" t="n">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D8" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Total farm production index</t>
+          <t>Production of Fresh fruit</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1068,79 +1068,79 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K8" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="L8" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M8" t="n">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="N8" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O8" t="n">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="P8" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="Q8" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="U8" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="V8" t="n">
-        <v>1288</v>
+        <v>1112</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>The graph shows the total farm production index in Canada for the year 2016. The graph reaches its highest point in June and then steadily drops each month until reaching its lowest point in October. Thereafter, it slowly recovers until December. </t>
+          <t>Line chart showing the evolution of the Farm product price index in Canada in 2016. </t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>The graph shows the total TKN_About in TKN_Geo for the year TKN_Year. The graph reaches its highest point in June and then steadily drops each month until reaching its lowest point in October. Thereafter, it slowly recovers until December. </t>
+          <t>Line chart showing TKN_About TKN_UOM in TKN_Geo in TKN_Year. </t>
         </is>
       </c>
       <c r="Y8" t="n">
-        <v>1371</v>
+        <v>1148</v>
       </c>
       <c r="Z8" t="n">
-        <v>1245</v>
+        <v>954</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>534</v>
+        <v>662</v>
       </c>
       <c r="C9" t="n">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="D9" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1149,88 +1149,88 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Total farm production index</t>
+          <t>Commercial software prince index</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Farm product price index (FPPI)</t>
+          <t>ID 209</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="M9" t="n">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="N9" t="n">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="O9" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="P9" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q9" t="n">
-        <v>26</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="T9" t="n">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="U9" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="V9" t="n">
-        <v>1288</v>
+        <v>1167</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>The total farm production index from the year 2016 is showen by the graph. in Jannuary it starts increasing continously till March, decreas a little bit in April and increase again till it reach the annual maximum of  around 1375 in June. The folowing monthes the index decrease rapidly till October and reaches the minimum value of about 1245. in November and December it increases again. </t>
+          <t>The commercial software price index in Canada considerably increased over 2018. The minimum value was in January around 1130. The maximum value was in December around 1167. All over the year there were reported several fluctuations of the index value. </t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>The total TKN_About from the year TKN_Year is showen by the graph. in Jannuary it starts increasing continously till March, decreas a little bit in April and increase again till it reach the annual maximum of  around 103 in June. The folowing TKN_About decrease rapidly till October and reaches the minimum value of about 0. in November and December it increases again. </t>
+          <t>The TKN_About in TKN_Geo considerably increased over TKN_Year. The minimum value was in January around 3. The maximum value was in December around 100. All over the year there were reported several fluctuations TKN_About value. </t>
         </is>
       </c>
       <c r="Y9" t="n">
-        <v>1371</v>
+        <v>1167</v>
       </c>
       <c r="Z9" t="n">
-        <v>1245</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B10" t="n">
-        <v>538</v>
+        <v>985</v>
       </c>
       <c r="C10" t="n">
-        <v>160</v>
+        <v>285</v>
       </c>
       <c r="D10" t="n">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1239,88 +1239,88 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Total farm production index</t>
+          <t>Production of Wheat flour</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Farm product price index (FPPI)</t>
+          <t>Tonnes</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="L10" t="n">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="M10" t="n">
-        <v>73</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="N10" t="n">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="O10" t="n">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="P10" t="n">
-        <v>67</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="Q10" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T10" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="U10" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="V10" t="n">
-        <v>1288</v>
+        <v>39724</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>The shown data are about the total farm production index in Canada during 2016. The maximum value was recorded during the month of June. After that, a big drop has been registered between June and September. During the last few months of the year the production value slightly increased. </t>
+          <t>The graph shows the production of wheat flour in tonnes in Canada in 2017. The lowest production is in Jannuary. From February till July the graph oscillate. in August it drops and rise again in September. It stay constant in October before it decrease in November again. In december it jump to the highest production of around 40000. </t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>The shown data are about the total TKN_About in TKN_Geo during TKN_Year. The maximum value was recorded during the month of June. After that, a big drop has been registered between June and September. During the last few months of the TKN_About value slightly increased. </t>
+          <t>The graph shows the TKN_About in TKN_UOM in TKN_Geo in TKN_Year. The lowest production is in Jannuary. From February till July the graph oscillate. in August it drops and rise again in September. It stay constant in October before it decrease in November again. In december it jump to the TKN_About around 101. </t>
         </is>
       </c>
       <c r="Y10" t="n">
-        <v>1371</v>
+        <v>39724</v>
       </c>
       <c r="Z10" t="n">
-        <v>1245</v>
+        <v>21311</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>556</v>
+        <v>660</v>
       </c>
       <c r="C11" t="n">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="D11" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1329,88 +1329,88 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Production of Fresh fruit</t>
+          <t>Commercial software prince index</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Farm product price index (FPPI)</t>
+          <t>ID 209</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="M11" t="n">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="N11" t="n">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="O11" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="P11" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="R11" t="n">
-        <v>37</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="S11" t="n">
-        <v>55.00000000000001</v>
+        <v>61</v>
       </c>
       <c r="T11" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="U11" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="V11" t="n">
-        <v>1112</v>
+        <v>1167</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>Line chart showing the evolution of the Farm product price index in Canada in 2016. </t>
+          <t>This graph shows a general upward trend in the price index of commercial software in Canada in 2018. While there were drops in the price index in April and August from their respective previous months, the graph obeyed an increasing trend. </t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Line chart showing TKN_About the Farm product price index in TKN_Geo in TKN_Year. </t>
+          <t>This graph shows a general upward trend in the price TKN_About in TKN_Geo in TKN_Year. While there were drops in TKN_About in April and August from their respective previous months, the graph obeyed an increasing trend. </t>
         </is>
       </c>
       <c r="Y11" t="n">
-        <v>1148</v>
+        <v>1167</v>
       </c>
       <c r="Z11" t="n">
-        <v>954</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>557</v>
+        <v>892</v>
       </c>
       <c r="C12" t="n">
-        <v>166</v>
+        <v>258</v>
       </c>
       <c r="D12" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1419,178 +1419,178 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Production of Fresh fruit</t>
+          <t>Total vehicles entering Canada</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Farm product price index (FPPI)</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>86</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="M12" t="n">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="N12" t="n">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="O12" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P12" t="n">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R12" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="S12" t="n">
-        <v>55.00000000000001</v>
+        <v>44</v>
       </c>
       <c r="T12" t="n">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="U12" t="n">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="V12" t="n">
-        <v>1112</v>
+        <v>2374690</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>The FPPI of Canadian fresh fruit in 2016 fluctuates steadily between January and April. Then the FPPI start to decline, with its downwards slope increasing slightly after May. The FPPI drops dramatically in July, and reaches its lowest point in August. It then quickly starts raising, slowing slightly between September and October, and finishes its climb in November. The FPPI is close to its January value and is fairly steady until December. </t>
+          <t>The number of vehicles entering Canada during 2018 substantially increased over the summer months. In particular, the maximum value was reached during August. The minimum number of vehicles enterin Canada was during February. </t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>The FPPI TKN_About in TKN_Year fluctuates steadily between January and April. Then the FPPI start to decline, with its downwards slope increasing slightly after May. The FPPI drops dramatically in July, and reaches its lowest point in August. It then quickly starts raising, slowing slightly between September and October, and finishes its climb in November. The FPPI is close to its January value and is fairly steady until December. </t>
+          <t>The TKN_UOM TKN_About TKN_Geo during TKN_Year substantially increased over the summer months. In particular, the maximum value was reached during August. The minimum TKN_About enterin TKN_Geo was during February. </t>
         </is>
       </c>
       <c r="Y12" t="n">
-        <v>1148</v>
+        <v>3483514</v>
       </c>
       <c r="Z12" t="n">
-        <v>954</v>
+        <v>2087613</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B13" t="n">
+        <v>878</v>
+      </c>
+      <c r="C13" t="n">
+        <v>253</v>
+      </c>
+      <c r="D13" t="n">
+        <v>84</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2017</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Total vehicles entering Canada</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>562</v>
-      </c>
-      <c r="C13" t="n">
-        <v>167</v>
-      </c>
-      <c r="D13" t="n">
-        <v>55</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2016</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Production of Fresh fruit</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Farm product price index (FPPI)</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>86</v>
-      </c>
       <c r="K13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="M13" t="n">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="N13" t="n">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="O13" t="n">
-        <v>74</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="P13" t="n">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R13" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="S13" t="n">
-        <v>55.00000000000001</v>
+        <v>46</v>
       </c>
       <c r="T13" t="n">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="U13" t="n">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="V13" t="n">
-        <v>1112</v>
+        <v>2376122</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>The graph shows the production of fresh fruits in Canada over the year of 2016. In the first half of the year the production was nearly constant, until it fall dramatically in the mounth of August. Afterwards the fresh fruit production rises again over the index of 1100. </t>
+          <t>It shows the number of total vehicles entering Canada during 2017. It's clearly possible to see how this value rapidly increase from January until the end of the summer, reaching its maximum value in August. After that, the number of vehicles entering Canada decrease during the last few months of the year. The minimum value has been recorded during February. </t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>The graph shows TKN_About fresh fruits in TKN_Geo over the year of TKN_Year. In the TKN_About the year the production was nearly constant, until it fall dramatically in the mounth of August. Afterwards TKN_About production rises again over the index of 75. </t>
+          <t>It shows the TKN_UOM of TKN_About TKN_Geo during TKN_Year. It's clearly possible to see how this value rapidly increase from January until the end of the summer, reaching its maximum value in August. After that, the TKN_UOM TKN_About TKN_Geo decrease during the last few months of the year. The minimum value has been recorded during February. </t>
         </is>
       </c>
       <c r="Y13" t="n">
-        <v>1148</v>
+        <v>3483738</v>
       </c>
       <c r="Z13" t="n">
-        <v>954</v>
+        <v>1985971</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>655</v>
+        <v>982</v>
       </c>
       <c r="C14" t="n">
-        <v>192</v>
+        <v>284</v>
       </c>
       <c r="D14" t="n">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1599,88 +1599,88 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Commercial software prince index</t>
+          <t>Production of Wheat flour</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>ID 209</t>
+          <t>Tonnes</t>
         </is>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="L14" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M14" t="n">
-        <v>11</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="N14" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="O14" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P14" t="n">
-        <v>71</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="Q14" t="n">
-        <v>55.00000000000001</v>
+        <v>18</v>
       </c>
       <c r="R14" t="n">
-        <v>55.00000000000001</v>
+        <v>50</v>
       </c>
       <c r="S14" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="T14" t="n">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="U14" t="n">
         <v>100</v>
       </c>
       <c r="V14" t="n">
-        <v>1167</v>
+        <v>39724</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>The graph is a line chart, illustrating the commercial software price index in Canada. The data used is from 2018. The y-axis showing the index ranges from 1125 to 1170. The index increased over the months of the year, with some ups and downs in between. The lowest and highest values were found in January (1129) and December (1167), respectively. </t>
+          <t>The figure shows a line chart about the production of what flour (in tonnes) in Canada during 2017. The values have been mainly fluctuating during the year, without any significant trend or patterns. Even that, if it has been recorded a significant growth from November to December, where the production of wheat flour during 2017 reached its peak. </t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>The graph is a line chart, illustrating the commercial TKN_About in TKN_Geo. The data used is from TKN_Year. The y-axis TKN_About ranges from -11 to 108. The index increased over the months of the year, with some ups and downs in between. The lowest and highest values were found in January (1129) and December (1167), respectively. </t>
+          <t>The figure shows a line chart about the TKN_About (in tonnes) in TKN_Geo during TKN_Year. The values have been mainly fluctuating during the year, without any significant trend or patterns. Even that, if it has been recorded a significant growth from November to December, where the TKN_About during TKN_Year reached its peak. </t>
         </is>
       </c>
       <c r="Y14" t="n">
-        <v>1167</v>
+        <v>39724</v>
       </c>
       <c r="Z14" t="n">
-        <v>1129</v>
+        <v>21311</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>660</v>
+        <v>991</v>
       </c>
       <c r="C15" t="n">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="D15" t="n">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1689,79 +1689,79 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Commercial software prince index</t>
+          <t>Production of Wheat flour</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>ID 209</t>
+          <t>Tonnes</t>
         </is>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="L15" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M15" t="n">
-        <v>11</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="N15" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="O15" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P15" t="n">
-        <v>71</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="Q15" t="n">
-        <v>55.00000000000001</v>
+        <v>18</v>
       </c>
       <c r="R15" t="n">
-        <v>55.00000000000001</v>
+        <v>50</v>
       </c>
       <c r="S15" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="T15" t="n">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="U15" t="n">
         <v>100</v>
       </c>
       <c r="V15" t="n">
-        <v>1167</v>
+        <v>39724</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>This graph shows a general upward trend in the price index of commercial software in Canada in 2018. While there were drops in the price index in April and August from their respective previous months, the graph obeyed an increasing trend. </t>
+          <t>The line chart is displaying the recorded data about production of wheat flour in Canada during 2017. The minimum value of production have been recorded during the months of January, August and November. From January to February has been recorded a significant growth. The maximum value of production over the year was recorded during December. </t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>This graph shows a general upward trend in the price TKN_About in TKN_Geo in TKN_Year. While there were drops in TKN_About in April and August from their respective previous months, the graph obeyed an increasing trend. </t>
+          <t>The line chart is displaying the recorded data about TKN_About in TKN_Geo during TKN_Year. The minimum TKN_About have been recorded during the months of January, August and November. From January to February has been recorded a significant growth. The maximum TKN_About over the year was recorded during December. </t>
         </is>
       </c>
       <c r="Y15" t="n">
-        <v>1167</v>
+        <v>39724</v>
       </c>
       <c r="Z15" t="n">
-        <v>1129</v>
+        <v>21311</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" t="n">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="C16" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D16" t="n">
         <v>64</v>
@@ -1828,12 +1828,12 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>The commercial software price index in Canada considerably increased over 2018. The minimum value was in January around 1130. The maximum value was in December around 1167. All over the year there were reported several fluctuations of the index value. </t>
+          <t>The graph is a line chart, illustrating the commercial software price index in Canada. The data used is from 2018. The y-axis showing the index ranges from 1125 to 1170. The index increased over the months of the year, with some ups and downs in between. The lowest and highest values were found in January (1129) and December (1167), respectively. </t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>The commercial TKN_About in TKN_Geo considerably increased over TKN_Year. The minimum value was in January around 3. The maximum value was in December around 100. All over the year there were reported several fluctuations TKN_About value. </t>
+          <t>The graph is a line chart, illustrating the TKN_About in TKN_Geo. The data used is from TKN_Year. The y-axis TKN_About ranges from -11 to 108. The index increased over the months of the year, with some ups and downs in between. The lowest and highest values were found in January (1129) and December (1167), respectively. </t>
         </is>
       </c>
       <c r="Y16" t="n">
@@ -1845,19 +1845,19 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B17" t="n">
-        <v>878</v>
+        <v>143</v>
       </c>
       <c r="C17" t="n">
-        <v>253</v>
+        <v>41</v>
       </c>
       <c r="D17" t="n">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>2017</v>
@@ -1869,88 +1869,88 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Total vehicles entering Canada</t>
+          <t>House and land price index</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Number</t>
+          <t>Index 347</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L17" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M17" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N17" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="O17" t="n">
-        <v>57.99999999999999</v>
+        <v>72</v>
       </c>
       <c r="P17" t="n">
+        <v>84</v>
+      </c>
+      <c r="Q17" t="n">
         <v>88</v>
       </c>
-      <c r="Q17" t="n">
-        <v>100</v>
-      </c>
       <c r="R17" t="n">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="S17" t="n">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="T17" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="U17" t="n">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="V17" t="n">
-        <v>2376122</v>
+        <v>1033</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>It shows the number of total vehicles entering Canada during 2017. It's clearly possible to see how this value rapidly increase from January until the end of the summer, reaching its maximum value in August. After that, the number of vehicles entering Canada decrease during the last few months of the year. The minimum value has been recorded during February. </t>
+          <t>Continuous increase of the house and land price index in Canada during the year 2017. </t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>It shows the number of TKN_About TKN_Geo during TKN_Year. It's clearly possible to see how this value rapidly increase from January until the end of the summer, reaching its maximum value in August. After that, the number TKN_About TKN_Geo decrease during the last few months of the year. The minimum value has been recorded during February. </t>
+          <t>Continuous increase of TKN_About TKN_UOM in TKN_Geo during the year TKN_Year. </t>
         </is>
       </c>
       <c r="Y17" t="n">
-        <v>3483738</v>
+        <v>1033</v>
       </c>
       <c r="Z17" t="n">
-        <v>1985971</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="C18" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D18" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1968,79 +1968,79 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>11</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="M18" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N18" t="n">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="O18" t="n">
-        <v>57.99999999999999</v>
+        <v>70</v>
       </c>
       <c r="P18" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q18" t="n">
         <v>100</v>
       </c>
       <c r="R18" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="S18" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T18" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="U18" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="V18" t="n">
-        <v>2376122</v>
+        <v>2374690</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>The graph showes the total vehicles entering canada in 2017. The graph decreases in February. From february till August it starts to increase continously and reaches the maximum of over 3400000. From August till December the graph decrease continuslie till a total number of 2400000 in December. </t>
+          <t>The line chart describes the number of total vehicles entering Canada during 2018. It's clearly possible to observe that this value rapidly growed from January to August, showing the highest values during the summer months. During the last few months of the year the number of total vehicles entering Canada rapidly decreased. </t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>The graph showes the TKN_About canada in TKN_Year. The graph decreases in February. From february till August it starts to increase continously and reaches the maximum of over 94. From August till December the graph decrease continuslie till a total number of 28 in December. </t>
+          <t>The line chart describes the TKN_UOM of TKN_About TKN_Geo during TKN_Year. It's clearly possible to observe that this value rapidly growed from January to August, showing the highest values during the summer months. During the last few months of the year the TKN_UOM of TKN_About TKN_Geo rapidly decreased. </t>
         </is>
       </c>
       <c r="Y18" t="n">
-        <v>3483738</v>
+        <v>3483514</v>
       </c>
       <c r="Z18" t="n">
-        <v>1985971</v>
+        <v>2087613</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B19" t="n">
-        <v>886</v>
+        <v>562</v>
       </c>
       <c r="C19" t="n">
-        <v>255</v>
+        <v>167</v>
       </c>
       <c r="D19" t="n">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -2049,85 +2049,85 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Total vehicles entering Canada</t>
+          <t>Production of Fresh fruit</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Number</t>
+          <t>Farm product price index (FPPI)</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="K19" t="n">
+        <v>100</v>
+      </c>
+      <c r="L19" t="n">
+        <v>85</v>
+      </c>
+      <c r="M19" t="n">
+        <v>99</v>
+      </c>
+      <c r="N19" t="n">
+        <v>93</v>
+      </c>
+      <c r="O19" t="n">
+        <v>74</v>
+      </c>
+      <c r="P19" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q19" t="n">
         <v>0</v>
       </c>
-      <c r="L19" t="n">
-        <v>26</v>
-      </c>
-      <c r="M19" t="n">
-        <v>36</v>
-      </c>
-      <c r="N19" t="n">
-        <v>45</v>
-      </c>
-      <c r="O19" t="n">
-        <v>57.99999999999999</v>
-      </c>
-      <c r="P19" t="n">
-        <v>88</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>100</v>
-      </c>
       <c r="R19" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="S19" t="n">
-        <v>46</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="T19" t="n">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="U19" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="V19" t="n">
-        <v>2376122</v>
+        <v>1112</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>the total vehicle entering Canada in 2017 were about 2000000 in Jan and Feb. then, they increased linearly until Aug, reaching 3400000. The they decreased considerably to 2400000, almost back to where they started from. </t>
+          <t>The graph shows the production of fresh fruits in Canada over the year of 2016. In the first half of the year the production was nearly constant, until it fall dramatically in the mounth of August. Afterwards the fresh fruit production rises again over the index of 1100. </t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>the TKN_About TKN_Geo in TKN_Year were about 1 in Jan and Feb. then, they increased linearly until Aug, reaching 94. The they decreased considerably to 2400000, almost back to where they started from. </t>
+          <t>The graph shows the TKN_About fruits in TKN_Geo over the year of TKN_Year. In the first half TKN_About was nearly constant, until it fall dramatically in the mounth of August. Afterwards the TKN_About rises again over the index of 75. </t>
         </is>
       </c>
       <c r="Y19" t="n">
-        <v>3483738</v>
+        <v>1148</v>
       </c>
       <c r="Z19" t="n">
-        <v>1985971</v>
+        <v>954</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="C20" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D20" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
         <v>2018</v>
@@ -2139,88 +2139,88 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Total vehicles entering Canada</t>
+          <t>Production of Oats</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Number</t>
+          <t>Tonnes</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>7.000000000000001</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="K20" t="n">
+        <v>10</v>
+      </c>
+      <c r="L20" t="n">
+        <v>40</v>
+      </c>
+      <c r="M20" t="n">
+        <v>40</v>
+      </c>
+      <c r="N20" t="n">
+        <v>46</v>
+      </c>
+      <c r="O20" t="n">
+        <v>18</v>
+      </c>
+      <c r="P20" t="n">
         <v>0</v>
       </c>
-      <c r="L20" t="n">
-        <v>41</v>
-      </c>
-      <c r="M20" t="n">
-        <v>39</v>
-      </c>
-      <c r="N20" t="n">
-        <v>62</v>
-      </c>
-      <c r="O20" t="n">
-        <v>70</v>
-      </c>
-      <c r="P20" t="n">
+      <c r="Q20" t="n">
+        <v>59</v>
+      </c>
+      <c r="R20" t="n">
         <v>91</v>
       </c>
-      <c r="Q20" t="n">
-        <v>100</v>
-      </c>
-      <c r="R20" t="n">
-        <v>53</v>
-      </c>
       <c r="S20" t="n">
+        <v>100</v>
+      </c>
+      <c r="T20" t="n">
+        <v>40</v>
+      </c>
+      <c r="U20" t="n">
         <v>44</v>
       </c>
-      <c r="T20" t="n">
-        <v>19</v>
-      </c>
-      <c r="U20" t="n">
-        <v>21</v>
-      </c>
       <c r="V20" t="n">
-        <v>2374690</v>
+        <v>138297</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>The line chart describes the number of total vehicles entering Canada during 2018. It's clearly possible to observe that this value rapidly growed from January to August, showing the highest values during the summer months. During the last few months of the year the number of total vehicles entering Canada rapidly decreased. </t>
+          <t>The following graph depicts the Canadian production of oats in tonnes during 2018. In January approximately 160000 tonnes were produced, after which a sharp drop can be observed for February, reaching slightly below 100000. Production remain mostly stable throughout March to May, with the lowest production coming up in July at 80000. Production sharply increases during the following months, until it peaks in October at approximately 210000. Following this there is a drop, and production remains almost unchanged during November and December at 140000. </t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>The line chart describes the number of TKN_About TKN_Geo during TKN_Year. It's clearly possible to observe that this value rapidly growed from January to August, showing the highest values during the summer months. During the last few months of the year the number of TKN_About TKN_Geo rapidly decreased. </t>
+          <t>The following graph depicts the Canadian TKN_About in TKN_UOM during TKN_Year. In January approximately 60 TKN_UOM were produced, after which a sharp drop can be observed for February, reaching slightly below 15. Production remain mostly stable throughout March to May, with the lowest production coming up in July at 0. Production sharply increases during the following months, until it peaks in October at approximately 97. Following this there is a drop, TKN_About remains almost unchanged during November and December at 45. </t>
         </is>
       </c>
       <c r="Y20" t="n">
-        <v>3483514</v>
+        <v>213885</v>
       </c>
       <c r="Z20" t="n">
-        <v>2087613</v>
+        <v>80033</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B21" t="n">
-        <v>892</v>
+        <v>538</v>
       </c>
       <c r="C21" t="n">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="D21" t="n">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2229,88 +2229,88 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Total vehicles entering Canada</t>
+          <t>Total farm production index</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Number</t>
+          <t>Farm product price index (FPPI)</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>7.000000000000001</v>
+        <v>78</v>
       </c>
       <c r="K21" t="n">
+        <v>83</v>
+      </c>
+      <c r="L21" t="n">
+        <v>88</v>
+      </c>
+      <c r="M21" t="n">
+        <v>73</v>
+      </c>
+      <c r="N21" t="n">
+        <v>94</v>
+      </c>
+      <c r="O21" t="n">
+        <v>100</v>
+      </c>
+      <c r="P21" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>26</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
         <v>0</v>
       </c>
-      <c r="L21" t="n">
-        <v>41</v>
-      </c>
-      <c r="M21" t="n">
-        <v>39</v>
-      </c>
-      <c r="N21" t="n">
-        <v>62</v>
-      </c>
-      <c r="O21" t="n">
-        <v>70</v>
-      </c>
-      <c r="P21" t="n">
-        <v>91</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>100</v>
-      </c>
-      <c r="R21" t="n">
-        <v>53</v>
-      </c>
-      <c r="S21" t="n">
-        <v>44</v>
-      </c>
       <c r="T21" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="U21" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="V21" t="n">
-        <v>2374690</v>
+        <v>1288</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>The number of vehicles entering Canada during 2018 substantially increased over the summer months. In particular, the maximum value was reached during August. The minimum number of vehicles enterin Canada was during February. </t>
+          <t>The shown data are about the total farm production index in Canada during 2016. The maximum value was recorded during the month of June. After that, a big drop has been registered between June and September. During the last few months of the year the production value slightly increased. </t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>The number TKN_About TKN_Geo during TKN_Year substantially increased over the summer months. In particular, the maximum value was reached during August. The minimum TKN_About enterin TKN_Geo was during February. </t>
+          <t>The shown data are about TKN_UOM in TKN_Geo during TKN_Year. The maximum value was recorded during the month of June. After that, a big drop has been registered between June and September. During the last few months of the TKN_About value slightly increased. </t>
         </is>
       </c>
       <c r="Y21" t="n">
-        <v>3483514</v>
+        <v>1371</v>
       </c>
       <c r="Z21" t="n">
-        <v>2087613</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B22" t="n">
-        <v>895</v>
+        <v>531</v>
       </c>
       <c r="C22" t="n">
-        <v>259</v>
+        <v>158</v>
       </c>
       <c r="D22" t="n">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2319,88 +2319,88 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Production of Oats</t>
+          <t>Total farm production index</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Tonnes</t>
+          <t>Farm product price index (FPPI)</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>56.99999999999999</v>
+        <v>78</v>
       </c>
       <c r="K22" t="n">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="L22" t="n">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="M22" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="N22" t="n">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="O22" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="P22" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>26</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
         <v>0</v>
       </c>
-      <c r="Q22" t="n">
-        <v>59</v>
-      </c>
-      <c r="R22" t="n">
-        <v>91</v>
-      </c>
-      <c r="S22" t="n">
-        <v>100</v>
-      </c>
       <c r="T22" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="U22" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="V22" t="n">
-        <v>138297</v>
+        <v>1288</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>The graph illustrates the production of oats in Canada for the year 2018. There are sharp decreases in production for the months of February, July and November. </t>
+          <t>The graph shows the total farm production index in Canada for the year 2016. The graph reaches its highest point in June and then steadily drops each month until reaching its lowest point in October. Thereafter, it slowly recovers until December. </t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>The graph illustrates the TKN_About oats in TKN_Geo for the year TKN_Year. There are sharp decreases in production for the TKN_About February, July and November. </t>
+          <t>The graph shows TKN_UOM in TKN_Geo for the year TKN_Year. The graph reaches its highest point in June and then steadily drops each month until reaching its lowest point in October. Thereafter, it slowly recovers until December. </t>
         </is>
       </c>
       <c r="Y22" t="n">
-        <v>213885</v>
+        <v>1371</v>
       </c>
       <c r="Z22" t="n">
-        <v>80033</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B23" t="n">
-        <v>897</v>
+        <v>534</v>
       </c>
       <c r="C23" t="n">
-        <v>260</v>
+        <v>159</v>
       </c>
       <c r="D23" t="n">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="E23" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2409,79 +2409,79 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Production of Oats</t>
+          <t>Total farm production index</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Tonnes</t>
+          <t>Farm product price index (FPPI)</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>56.99999999999999</v>
+        <v>78</v>
       </c>
       <c r="K23" t="n">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="L23" t="n">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="M23" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="N23" t="n">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="O23" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="P23" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>26</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="n">
         <v>0</v>
       </c>
-      <c r="Q23" t="n">
-        <v>59</v>
-      </c>
-      <c r="R23" t="n">
-        <v>91</v>
-      </c>
-      <c r="S23" t="n">
-        <v>100</v>
-      </c>
       <c r="T23" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="U23" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="V23" t="n">
-        <v>138297</v>
+        <v>1288</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>This graph shows the monthly amount of oats produced in Canada in 2018 in tonnes. Oat production stayed within the range of 80000 and 210000 tonnes each month. While most months averaged production at around 140000 tonnes, February, June and July saw dips in production to around 90000 tonnes and the fall months saw a higher harvest, 16000 and above 200000 tonnes consecutively. </t>
+          <t>The total farm production index from the year 2016 is showen by the graph. in Jannuary it starts increasing continously till March, decreas a little bit in April and increase again till it reach the annual maximum of  around 1375 in June. The folowing monthes the index decrease rapidly till October and reaches the minimum value of about 1245. in November and December it increases again. </t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>This graph shows the monthly TKN_About oats produced in TKN_Geo in TKN_Year in tonnes. Oat production stayed within the TKN_About 0 and 97 tonnes each month. While most months averaged production at around 45 tonnes, February, June and July saw dips in production to around 7 tonnes and the fall months saw a higher harvest, -48 and above 90 tonnes consecutively. </t>
+          <t>The TKN_About from the year TKN_Year is showen by the graph. in Jannuary it starts increasing continously till March, decreas a little bit in April and increase again till it reach the annual maximum of  around 103 in June. The folowing TKN_About decrease rapidly till October and reaches the minimum value of about 0. in November and December it increases again. </t>
         </is>
       </c>
       <c r="Y23" t="n">
-        <v>213885</v>
+        <v>1371</v>
       </c>
       <c r="Z23" t="n">
-        <v>80033</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="n">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C24" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D24" t="n">
         <v>86</v>
@@ -2548,12 +2548,12 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>The following graph depicts the Canadian production of oats in tonnes during 2018. In January approximately 160000 tonnes were produced, after which a sharp drop can be observed for February, reaching slightly below 100000. Production remain mostly stable throughout March to May, with the lowest production coming up in July at 80000. Production sharply increases during the following months, until it peaks in October at approximately 210000. Following this there is a drop, and production remains almost unchanged during November and December at 140000. </t>
+          <t>This graph shows the monthly amount of oats produced in Canada in 2018 in tonnes. Oat production stayed within the range of 80000 and 210000 tonnes each month. While most months averaged production at around 140000 tonnes, February, June and July saw dips in production to around 90000 tonnes and the fall months saw a higher harvest, 16000 and above 200000 tonnes consecutively. </t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>The following graph depicts the Canadian TKN_About oats in tonnes during TKN_Year. In January approximately 60 tonnes were produced, after which a sharp drop can be observed for February, reaching slightly below 15. Production remain mostly stable throughout March to May, with the lowest production coming up in July at 0. Production sharply increases during the following months, until it peaks in October at approximately 97. Following this there is a drop, and production remains almost unchanged during November and December at 45. </t>
+          <t>This graph shows the monthly amount TKN_About produced in TKN_Geo in TKN_Year in tonnes. Oat TKN_About 0 and 97 TKN_UOM each month. While most months TKN_About at around 45 TKN_UOM, February, June and July saw dips in production to around 7 TKN_UOM and the fall months saw a higher harvest, -48 and above 90 TKN_UOM consecutively. </t>
         </is>
       </c>
       <c r="Y24" t="n">
@@ -2565,13 +2565,13 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>950</v>
+        <v>955</v>
       </c>
       <c r="C25" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D25" t="n">
         <v>91</v>
@@ -2638,12 +2638,12 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>This graph depicts the production of oats in tonnes in Canada during 2017. Production shows peaks in January and March, whereas it significantly drops after March, reaching its minimum of approximately 65000 in May. For the following months production slightly increases until August. Between August and September a rapid increase in production can be observed, indicating the maximum of over 200000 in September. Production slowly decreases throughout the following months until December. </t>
+          <t>The production of oats strongly fluctuated over the 2017 in Canada. It doesn't really have an ascendant or descendant trend. The most significant dip has been recorded in May. The most considerable peak was recorded in September 2017. </t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>This graph depicts the TKN_About oats in tonnes in TKN_Geo during TKN_Year. Production shows peaks in January and March, whereas it significantly drops after March, reaching its minimum of approximately 0 in May. For the following months production slightly increases until August. Between August and September a rapid increase in production can be observed, indicating the TKN_About over 96 in September. Production slowly decreases throughout the following months until December. </t>
+          <t>The TKN_About strongly fluctuated over the TKN_Year in TKN_Geo. It doesn't really have an ascendant or descendant trend. The most significant dip has been recorded in May. The most considerable peak was recorded in September TKN_Year. </t>
         </is>
       </c>
       <c r="Y25" t="n">
@@ -2655,19 +2655,19 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B26" t="n">
-        <v>955</v>
+        <v>138</v>
       </c>
       <c r="C26" t="n">
-        <v>277</v>
+        <v>39</v>
       </c>
       <c r="D26" t="n">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
         <v>2017</v>
@@ -2679,88 +2679,88 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Production of Oats</t>
+          <t>House and land price index</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Tonnes</t>
+          <t>Index 347</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="L26" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="M26" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="O26" t="n">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="P26" t="n">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="Q26" t="n">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="R26" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S26" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="T26" t="n">
-        <v>56.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="U26" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="V26" t="n">
-        <v>128722</v>
+        <v>1033</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>The production of oats strongly fluctuated over the 2017 in Canada. It doesn't really have an ascendant or descendant trend. The most significant dip has been recorded in May. The most considerable peak was recorded in September 2017. </t>
+          <t>The following graph shows information about the house and land price index in Canada during 2017. As can be seen from the graph, the index have been steadily increasing its value over the year. There are few light fluctuations but no peaks or dips have been recorded. </t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>The TKN_About oats strongly fluctuated over the TKN_Year in TKN_Geo. It doesn't really have an ascendant or descendant trend. The most significant dip has been recorded in May. The most considerable peak was recorded in September TKN_Year. </t>
+          <t>The following graph shows information about TKN_About TKN_UOM in TKN_Geo during TKN_Year. As can be seen from the graph, TKN_UOM have been steadily increasing its value over the year. There are few light fluctuations but no peaks or dips have been recorded. </t>
         </is>
       </c>
       <c r="Y26" t="n">
-        <v>205171</v>
+        <v>1033</v>
       </c>
       <c r="Z26" t="n">
-        <v>64724</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>982</v>
+        <v>89</v>
       </c>
       <c r="C27" t="n">
-        <v>284</v>
+        <v>24</v>
       </c>
       <c r="D27" t="n">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="E27" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2769,79 +2769,79 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Production of Wheat flour</t>
+          <t>Total softwood, production</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Tonnes</t>
+          <t>Cubic metres</t>
         </is>
       </c>
       <c r="J27" t="n">
+        <v>64</v>
+      </c>
+      <c r="K27" t="n">
+        <v>72</v>
+      </c>
+      <c r="L27" t="n">
+        <v>100</v>
+      </c>
+      <c r="M27" t="n">
+        <v>95</v>
+      </c>
+      <c r="N27" t="n">
+        <v>91</v>
+      </c>
+      <c r="O27" t="n">
+        <v>83</v>
+      </c>
+      <c r="P27" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>81</v>
+      </c>
+      <c r="R27" t="n">
+        <v>95</v>
+      </c>
+      <c r="S27" t="n">
+        <v>90</v>
+      </c>
+      <c r="T27" t="n">
+        <v>100</v>
+      </c>
+      <c r="U27" t="n">
         <v>0</v>
       </c>
-      <c r="K27" t="n">
-        <v>54</v>
-      </c>
-      <c r="L27" t="n">
-        <v>42</v>
-      </c>
-      <c r="M27" t="n">
-        <v>55.00000000000001</v>
-      </c>
-      <c r="N27" t="n">
-        <v>59</v>
-      </c>
-      <c r="O27" t="n">
-        <v>66</v>
-      </c>
-      <c r="P27" t="n">
-        <v>56.00000000000001</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>18</v>
-      </c>
-      <c r="R27" t="n">
-        <v>50</v>
-      </c>
-      <c r="S27" t="n">
-        <v>50</v>
-      </c>
-      <c r="T27" t="n">
-        <v>19</v>
-      </c>
-      <c r="U27" t="n">
-        <v>100</v>
-      </c>
       <c r="V27" t="n">
-        <v>39724</v>
+        <v>46158</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>The figure shows a line chart about the production of what flour (in tonnes) in Canada during 2017. The values have been mainly fluctuating during the year, without any significant trend or patterns. Even that, if it has been recorded a significant growth from November to December, where the production of wheat flour during 2017 reached its peak. </t>
+          <t>This graph depicts the total softwood production in Canada in 2016 in cubic meters. The values range from roughly 57000 in March to 46000 in December. January to March there is an increase in production, March to July production decreased and reached 50000 in July. There is another high of about 57000 cubic meters in November. </t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>The figure shows a line chart about the production TKN_About (in tonnes) in TKN_Geo during TKN_Year. The values have been mainly fluctuating during the year, without any significant trend or patterns. Even that, if it has been recorded a significant growth from November to December, where the production TKN_About during TKN_Year reached its peak. </t>
+          <t>This graph depicts the TKN_About in TKN_Geo in TKN_Year TKN_UOM meters. The values range from roughly 102 in March to -1 in December. January to March there is an increase in production, March to TKN_About decreased and reached 36 in July. There is another high of about TKN_UOM meters in November. </t>
         </is>
       </c>
       <c r="Y27" t="n">
-        <v>39724</v>
+        <v>56805</v>
       </c>
       <c r="Z27" t="n">
-        <v>21311</v>
+        <v>46158</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>985</v>
+        <v>995</v>
       </c>
       <c r="C28" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D28" t="n">
         <v>94</v>
@@ -2908,12 +2908,12 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>The graph shows the production of wheat flour in tonnes in Canada in 2017. The lowest production is in Jannuary. From February till July the graph oscillate. in August it drops and rise again in September. It stay constant in October before it decrease in November again. In december it jump to the highest production of around 40000. </t>
+          <t>This graph represents the production of wheat flour in Canada in 2017 (in tonnes). The lowest production is during January. There is a sharp increase during February and during the following months production levels off between 29000 and 32500. A decrease can be observed in August. For the following 2 months production of wheat flour remains steady at approximately 30000. After a drop in November, production peaks in December with up to 40000 tonnes. </t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>The graph shows the production TKN_About in tonnes in TKN_Geo in TKN_Year. The lowest production is in Jannuary. From February till July the graph oscillate. in August it drops and rise again in September. It stay constant in October before it decrease in November again. In december it jump to the TKN_About around 101. </t>
+          <t>This graph represents the TKN_About in TKN_Geo in TKN_Year (in tonnes). The lowest production is during January. There is a sharp increase during February and during the TKN_About levels off between 42 and 61. A decrease can be observed in August. For the following -116 months TKN_About remains steady at approximately 47. After a drop TKN_About peaks in December with up to 101 tonnes. </t>
         </is>
       </c>
       <c r="Y28" t="n">
@@ -2925,22 +2925,22 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B29" t="n">
-        <v>991</v>
+        <v>895</v>
       </c>
       <c r="C29" t="n">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="D29" t="n">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
       </c>
       <c r="F29" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Production of Wheat flour</t>
+          <t>Production of Oats</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2958,79 +2958,79 @@
         </is>
       </c>
       <c r="J29" t="n">
+        <v>56.99999999999999</v>
+      </c>
+      <c r="K29" t="n">
+        <v>10</v>
+      </c>
+      <c r="L29" t="n">
+        <v>40</v>
+      </c>
+      <c r="M29" t="n">
+        <v>40</v>
+      </c>
+      <c r="N29" t="n">
+        <v>46</v>
+      </c>
+      <c r="O29" t="n">
+        <v>18</v>
+      </c>
+      <c r="P29" t="n">
         <v>0</v>
       </c>
-      <c r="K29" t="n">
-        <v>54</v>
-      </c>
-      <c r="L29" t="n">
-        <v>42</v>
-      </c>
-      <c r="M29" t="n">
-        <v>55.00000000000001</v>
-      </c>
-      <c r="N29" t="n">
+      <c r="Q29" t="n">
         <v>59</v>
       </c>
-      <c r="O29" t="n">
-        <v>66</v>
-      </c>
-      <c r="P29" t="n">
-        <v>56.00000000000001</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>18</v>
-      </c>
       <c r="R29" t="n">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="S29" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="T29" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="U29" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="V29" t="n">
-        <v>39724</v>
+        <v>138297</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>The line chart is displaying the recorded data about production of wheat flour in Canada during 2017. The minimum value of production have been recorded during the months of January, August and November. From January to February has been recorded a significant growth. The maximum value of production over the year was recorded during December. </t>
+          <t>The graph illustrates the production of oats in Canada for the year 2018. There are sharp decreases in production for the months of February, July and November. </t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>The line chart is displaying the recorded data about production TKN_About in TKN_Geo during TKN_Year. The TKN_About production have been recorded during the months of January, August and November. From January to February has been recorded a significant growth. The TKN_About production over the year was recorded during December. </t>
+          <t>The graph illustrates the TKN_About in TKN_Geo for the year TKN_Year. There are sharp decreases in TKN_About February, July and November. </t>
         </is>
       </c>
       <c r="Y29" t="n">
-        <v>39724</v>
+        <v>213885</v>
       </c>
       <c r="Z29" t="n">
-        <v>21311</v>
+        <v>80033</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>995</v>
+        <v>557</v>
       </c>
       <c r="C30" t="n">
-        <v>287</v>
+        <v>166</v>
       </c>
       <c r="D30" t="n">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="E30" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F30" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -3039,68 +3039,68 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Production of Wheat flour</t>
+          <t>Production of Fresh fruit</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Tonnes</t>
+          <t>Farm product price index (FPPI)</t>
         </is>
       </c>
       <c r="J30" t="n">
+        <v>86</v>
+      </c>
+      <c r="K30" t="n">
+        <v>100</v>
+      </c>
+      <c r="L30" t="n">
+        <v>85</v>
+      </c>
+      <c r="M30" t="n">
+        <v>99</v>
+      </c>
+      <c r="N30" t="n">
+        <v>93</v>
+      </c>
+      <c r="O30" t="n">
+        <v>74</v>
+      </c>
+      <c r="P30" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q30" t="n">
         <v>0</v>
       </c>
-      <c r="K30" t="n">
-        <v>54</v>
-      </c>
-      <c r="L30" t="n">
-        <v>42</v>
-      </c>
-      <c r="M30" t="n">
+      <c r="R30" t="n">
+        <v>37</v>
+      </c>
+      <c r="S30" t="n">
         <v>55.00000000000001</v>
       </c>
-      <c r="N30" t="n">
-        <v>59</v>
-      </c>
-      <c r="O30" t="n">
-        <v>66</v>
-      </c>
-      <c r="P30" t="n">
-        <v>56.00000000000001</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>18</v>
-      </c>
-      <c r="R30" t="n">
-        <v>50</v>
-      </c>
-      <c r="S30" t="n">
-        <v>50</v>
-      </c>
       <c r="T30" t="n">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="U30" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="V30" t="n">
-        <v>39724</v>
+        <v>1112</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>This graph represents the production of wheat flour in Canada in 2017 (in tonnes). The lowest production is during January. There is a sharp increase during February and during the following months production levels off between 29000 and 32500. A decrease can be observed in August. For the following 2 months production of wheat flour remains steady at approximately 30000. After a drop in November, production peaks in December with up to 40000 tonnes. </t>
+          <t>The FPPI of Canadian fresh fruit in 2016 fluctuates steadily between January and April. Then the FPPI start to decline, with its downwards slope increasing slightly after May. The FPPI drops dramatically in July, and reaches its lowest point in August. It then quickly starts raising, slowing slightly between September and October, and finishes its climb in November. The FPPI is close to its January value and is fairly steady until December. </t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>This graph represents the production TKN_About in TKN_Geo in TKN_Year (in tonnes). The lowest production is during January. There is a sharp increase during February and during the following months production levels off between 42 and 61. A decrease can be observed in August. For the following -116 months production TKN_About remains steady at approximately 47. After a drop in November, production peaks in December with up to 101 tonnes. </t>
+          <t>The FPPI TKN_About in TKN_Year fluctuates steadily between January and April. Then the FPPI start to decline, with its downwards slope increasing slightly after May. The FPPI drops dramatically in July, and reaches its lowest point in August. It then quickly starts raising, slowing slightly between September and October, and finishes its climb in November. The FPPI is close to its January value and is fairly steady until December. </t>
         </is>
       </c>
       <c r="Y30" t="n">
-        <v>39724</v>
+        <v>1148</v>
       </c>
       <c r="Z30" t="n">
-        <v>21311</v>
+        <v>954</v>
       </c>
     </row>
   </sheetData>
